--- a/src/test/resources/testdata/LoginPage_001_LoginSuccess.xlsx
+++ b/src/test/resources/testdata/LoginPage_001_LoginSuccess.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -28,6 +28,14 @@
   </si>
   <si>
     <t>Gmcc_1234</t>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helloxwr@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -396,36 +404,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/src/test/resources/testdata/LoginPage_001_LoginSuccess.xlsx
+++ b/src/test/resources/testdata/LoginPage_001_LoginSuccess.xlsx
@@ -27,14 +27,15 @@
     <t>helloxwr</t>
   </si>
   <si>
-    <t>Gmcc_1234</t>
-  </si>
-  <si>
     <t>expect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>helloxwr@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你猜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +408,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -425,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -433,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
